--- a/Data/Clustered_P_Words.xlsx
+++ b/Data/Clustered_P_Words.xlsx
@@ -7,406 +7,385 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Clusters" sheetId="1" r:id="rId1"/>
+    <sheet name="P_Words_Clusters" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
-  <si>
-    <t>P_word</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+  <si>
+    <t>P_Words</t>
   </si>
   <si>
     <t>Cluster</t>
   </si>
   <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>circadian</t>
+  </si>
+  <si>
+    <t>compensatory</t>
+  </si>
+  <si>
+    <t>dbm</t>
+  </si>
+  <si>
+    <t>dna</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>fam</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>nrc</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>towns</t>
+  </si>
+  <si>
+    <t>transmembrane</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>watt</t>
+  </si>
+  <si>
+    <t>dbw</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>mpp</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t>absorption</t>
+  </si>
+  <si>
+    <t>aeolian</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>auditory</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>debate</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>ions</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>poe</t>
+  </si>
+  <si>
+    <t>proteins</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>sounds</t>
+  </si>
+  <si>
+    <t>sulfide</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>tuning</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>absorber</t>
+  </si>
+  <si>
+    <t>absorbers</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>basil</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>built</t>
+  </si>
+  <si>
+    <t>displaystyle</t>
+  </si>
+  <si>
+    <t>ecology</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>organs</t>
+  </si>
+  <si>
+    <t>produced</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
     <t>acoustic</t>
   </si>
   <si>
-    <t>acoustical</t>
-  </si>
-  <si>
-    <t>applications</t>
-  </si>
-  <si>
-    <t>appropriate</t>
-  </si>
-  <si>
-    <t>averaging</t>
-  </si>
-  <si>
-    <t>baffles</t>
-  </si>
-  <si>
-    <t>bands</t>
-  </si>
-  <si>
-    <t>banners</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>ceiling</t>
-  </si>
-  <si>
-    <t>certain</t>
-  </si>
-  <si>
-    <t>compute</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>construction</t>
-  </si>
-  <si>
-    <t>coverings</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>described</t>
-  </si>
-  <si>
-    <t>designs</t>
-  </si>
-  <si>
-    <t>eighteen</t>
-  </si>
-  <si>
-    <t>employed</t>
-  </si>
-  <si>
-    <t>evaluate</t>
-  </si>
-  <si>
-    <t>except</t>
-  </si>
-  <si>
-    <t>facilities</t>
-  </si>
-  <si>
-    <t>finish</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>including</t>
-  </si>
-  <si>
-    <t>inclusive</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>intended</t>
-  </si>
-  <si>
-    <t>laboratory</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>objectives</t>
-  </si>
-  <si>
-    <t>occasionally</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>panels</t>
-  </si>
-  <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>properties</t>
-  </si>
-  <si>
-    <t>qualified</t>
-  </si>
-  <si>
-    <t>ranging</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>references</t>
-  </si>
-  <si>
-    <t>rehearsal</t>
-  </si>
-  <si>
-    <t>replaced</t>
-  </si>
-  <si>
-    <t>reverberation</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>rounding</t>
-  </si>
-  <si>
-    <t>saa</t>
-  </si>
-  <si>
-    <t>samples</t>
-  </si>
-  <si>
-    <t>screens</t>
-  </si>
-  <si>
-    <t>sensitive</t>
-  </si>
-  <si>
-    <t>similar</t>
-  </si>
-  <si>
-    <t>simplified</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>spaces</t>
-  </si>
-  <si>
-    <t>specified</t>
-  </si>
-  <si>
-    <t>speech</t>
-  </si>
-  <si>
-    <t>standards</t>
-  </si>
-  <si>
-    <t>taken</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>third</t>
-  </si>
-  <si>
-    <t>tiles</t>
-  </si>
-  <si>
-    <t>twelve</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>usually</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>absorption</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>formulas</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>particular</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>reflection</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>arithmetic</t>
-  </si>
-  <si>
-    <t>astm</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>band</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>coefficients</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>determined</t>
-  </si>
-  <si>
-    <t>frequencies</t>
-  </si>
-  <si>
-    <t>hz</t>
-  </si>
-  <si>
-    <t>material</t>
+    <t>enhancement</t>
+  </si>
+  <si>
+    <t>kanak</t>
+  </si>
+  <si>
+    <t>repeats</t>
+  </si>
+  <si>
+    <t>potassium</t>
+  </si>
+  <si>
+    <t>systems</t>
+  </si>
+  <si>
+    <t>aes</t>
+  </si>
+  <si>
+    <t>alberti</t>
+  </si>
+  <si>
+    <t>architects</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>bayati</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>directional</t>
+  </si>
+  <si>
+    <t>directivity</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fbar</t>
+  </si>
+  <si>
+    <t>glial</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>indigenous</t>
+  </si>
+  <si>
+    <t>inharmonicity</t>
+  </si>
+  <si>
+    <t>kosovo</t>
+  </si>
+  <si>
+    <t>mathit</t>
+  </si>
+  <si>
+    <t>museum</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>piano</t>
+  </si>
+  <si>
+    <t>seagrass</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>bim</t>
+  </si>
+  <si>
+    <t>buffering</t>
+  </si>
+  <si>
+    <t>centre</t>
+  </si>
+  <si>
+    <t>chronobiology</t>
+  </si>
+  <si>
+    <t>fbars</t>
+  </si>
+  <si>
+    <t>hypertrophy</t>
+  </si>
+  <si>
+    <t>inverted</t>
   </si>
   <si>
     <t>materials</t>
   </si>
   <si>
-    <t>mounting</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>nearest</t>
-  </si>
-  <si>
-    <t>octave</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>procedures</t>
-  </si>
-  <si>
-    <t>rounded</t>
-  </si>
-  <si>
-    <t>specific</t>
-  </si>
-  <si>
-    <t>standardized</t>
-  </si>
-  <si>
-    <t>technical</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>larger</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>abbreviated</t>
-  </si>
-  <si>
-    <t>absorbed</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>coefficient</t>
-  </si>
-  <si>
-    <t>commonly</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>nrc</t>
-  </si>
-  <si>
-    <t>reduction</t>
-  </si>
-  <si>
-    <t>representation</t>
-  </si>
-  <si>
-    <t>scalar</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>striking</t>
-  </si>
-  <si>
-    <t>upon</t>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>rhythm</t>
+  </si>
+  <si>
+    <t>rhythms</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>cdf</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>metaphoric</t>
+  </si>
+  <si>
+    <t>protein</t>
   </si>
 </sst>
 </file>
@@ -764,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,7 +996,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1028,7 +1007,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1039,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1050,7 +1029,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1061,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1072,7 +1051,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1083,7 +1062,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1094,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1105,7 +1084,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1116,7 +1095,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1127,7 +1106,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1138,7 +1117,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1149,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1160,7 +1139,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1171,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1182,7 +1161,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1193,7 +1172,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1204,7 +1183,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1215,7 +1194,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1226,7 +1205,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1237,7 +1216,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1248,7 +1227,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1259,7 +1238,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1270,7 +1249,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1281,7 +1260,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1292,7 +1271,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1303,7 +1282,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1314,7 +1293,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1325,7 +1304,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1336,7 +1315,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1347,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1358,7 +1337,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1369,7 +1348,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1380,7 +1359,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1391,7 +1370,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1402,7 +1381,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1413,7 +1392,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1424,7 +1403,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1435,7 +1414,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1446,7 +1425,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1457,7 +1436,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1468,7 +1447,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1479,7 +1458,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1490,7 +1469,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1501,7 +1480,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1512,7 +1491,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1523,7 +1502,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1534,7 +1513,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1545,7 +1524,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1556,7 +1535,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1567,7 +1546,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1578,7 +1557,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1589,7 +1568,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1600,7 +1579,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1611,7 +1590,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1622,7 +1601,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1633,7 +1612,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1644,7 +1623,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1655,7 +1634,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1666,7 +1645,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1677,7 +1656,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1688,7 +1667,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1699,7 +1678,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1710,7 +1689,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1721,7 +1700,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1732,7 +1711,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1743,7 +1722,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1754,7 +1733,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1765,7 +1744,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1776,7 +1755,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1787,7 +1766,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1798,7 +1777,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1809,7 +1788,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1820,7 +1799,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1831,7 +1810,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1842,7 +1821,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1853,7 +1832,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1864,7 +1843,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1875,7 +1854,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1886,7 +1865,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1897,7 +1876,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1908,7 +1887,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1919,7 +1898,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1930,7 +1909,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1941,7 +1920,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1952,7 +1931,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1963,7 +1942,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1974,7 +1953,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1985,7 +1964,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1996,7 +1975,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2007,7 +1986,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2018,7 +1997,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2029,7 +2008,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2040,7 +2019,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2051,7 +2030,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2062,7 +2041,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2073,7 +2052,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2084,7 +2063,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2095,7 +2074,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2106,7 +2085,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2117,84 +2096,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>128</v>
-      </c>
-      <c r="C128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
